--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>GotT Translation Circuit BOM</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Link:</t>
   </si>
   <si>
+    <t>Alternate Link:</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -53,7 +56,10 @@
     <t>http://www.mouser.com/ds/2/368/Bluegigga%20Technologies_WT32i_Datasheet-558681.pdf</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Bluegiga-Technologies/WT32i-E-AI6/?qs=sGAEpiMZZMsGelYiB%2BjhZsbL35iSrRKSBLln%2BDz/W3NKGY8vYrF%2Biw==</t>
+    <t>https://www.digikey.com/product-detail/en/silicon-labs/WT32I-E-AI6/1446-1037-1-ND/4806564</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Silicon-Labs-Bluegiga/WT32i-E-AI6/?qs=sGAEpiMZZMs8jstQXqv0yeC3dKQ4sq/l%2BU8bwDMPAJ4=</t>
   </si>
   <si>
     <t>U4</t>
@@ -71,6 +77,9 @@
     <t>https://www.digikey.com/product-search/en?keywords=MK20DX256VLH7</t>
   </si>
   <si>
+    <t>http://www.mouser.com/ProductDetail/NXP/MK20DX256VLH7/?qs=/ha2pyFadug8%2BwzZZR%2BytC1ltyM55e7A0lqFLKyD9Js6E9TOVIZq4w==</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>Pre-programmed MKL04 TQFP32</t>
   </si>
   <si>
+    <t>http://www.nxp.com/files/footprint/pdf/lqfp32.pdf</t>
+  </si>
+  <si>
     <t>https://www.pjrc.com/store/ic_mkl02.html</t>
   </si>
   <si>
@@ -116,6 +128,9 @@
     <t>https://www.digikey.com/product-detail/en/bourns-inc/PTV09A-4020U-B103/PTV09A-4020U-B103-ND/3781130</t>
   </si>
   <si>
+    <t>http://www.mouser.com/ProductDetail/Bourns/PTV09A-4020U-B103/?qs=/ha2pyFaduhvapXs4is1IL5MTuddxsTCviGLLAmL1hnk3lNHCL1NVQ==</t>
+  </si>
+  <si>
     <t>X1</t>
   </si>
   <si>
@@ -131,10 +146,79 @@
     <t>https://www.digikey.com/product-detail/en/ndk/NX2520SA-16MHZ-STD-CSW-5/644-1169-1-ND/3125558</t>
   </si>
   <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>PTC Resettable Fuse</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Power Input Switch</t>
+  </si>
+  <si>
+    <t>TVS Protection Diode</t>
+  </si>
+  <si>
+    <t>AP7313-18SAG-7</t>
+  </si>
+  <si>
+    <t>1.8V, 150mA LDO Regulator</t>
+  </si>
+  <si>
+    <t>http://www.diodes.com/_files/datasheets/AP7313.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP7313-18SAG-7/AP7313-18SAG-7DICT-ND/2270838</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Diodes-Incorporated/AP7313-18SAG-7/?qs=/ha2pyFadujy/gnw%2B3xItPhBQ0SnhtM987cdGDCE3x6s1BRWXYc%2B1Q==</t>
+  </si>
+  <si>
+    <t>C1, 2</t>
+  </si>
+  <si>
+    <t>T520D337M006ATE009</t>
+  </si>
+  <si>
+    <t>330uF/6.3V/20%/TAN/ESR&lt;10mohm</t>
+  </si>
+  <si>
+    <t>http://www.kemet.com/Lists/ProductCatalog/Attachments/421/KEM_T2015_T520.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/kemet/T520D337M006ATE009/399-10418-1-ND/3880189</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Kemet/T520D337M006ATE009/?qs=F4vAmCFCeavzfa2EBT2i1w==</t>
+  </si>
+  <si>
+    <t>MPZ1608S601ATA00</t>
+  </si>
+  <si>
+    <t>Ferrite Bead 600 Ohm at 100MHz</t>
+  </si>
+  <si>
+    <t>https://product.tdk.com/info/en/catalog/datasheets/beads_commercial_power_mpz1608_en.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/tdk-corporation/MPZ1608S601ATA00/445-2205-1-ND/765103</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TDK/MPZ1608S601ATA00/?qs=47dIwT2ZIzth0CTKDYh9rw==</t>
+  </si>
+  <si>
+    <t>JF1R6-CR3-4I</t>
+  </si>
+  <si>
     <t>U.FL (UMCC) to RP-SMA Female</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/digi-international/JF1R6-CR3-4I/JF1R6-CR3-4I-ND/1090366</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Digi-International/JF1R6-CR3-4I/?qs=/ha2pyFaduims8tK6Us52r5eWOHgAet92us06mmlXyAvpYrNpBxg1A==</t>
   </si>
   <si>
     <t>Antenna</t>
@@ -270,7 +354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +411,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,10 +440,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:18"/>
+  <dimension ref="1:20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -364,7 +452,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6173469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1428571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.0408163265306"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4183673469388"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.0867346938776"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.0867346938776"/>
@@ -1418,6 +1506,9 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
@@ -2432,27 +2523,29 @@
     </row>
     <row r="3" s="5" customFormat="true" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>30.04</v>
+        <v>19.66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -2461,7 +2554,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>1</v>
@@ -2470,21 +2563,24 @@
         <v>7.07</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>1</v>
@@ -2493,19 +2589,21 @@
         <v>6.95</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>1</v>
@@ -2514,21 +2612,21 @@
         <v>1.61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>1</v>
@@ -2541,7 +2639,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>3</v>
@@ -2550,21 +2648,24 @@
         <v>0.83</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>1</v>
@@ -2573,37 +2674,45 @@
         <v>1.09</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
     </row>
@@ -2614,7 +2723,9 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
     </row>
@@ -2623,27 +2734,49 @@
       <c r="B13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>2.17</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="10" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2651,43 +2784,89 @@
       <c r="B15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="14"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <f aca="false">(C3*B3)+(C4*B4)+(C5*B5)+(C7*B7)+(C8*B8)+(C9*B9)+(C10*B10)+(C11*B11)+(C12*B12)+(C13*B13)+(C14*B14)+(C16*B16)</f>
-        <v>52.14</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="15"/>
+      <c r="C19" s="7"/>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <f aca="false">(C3*B3)+(C4*B4)+(C5*B5)+(C7*B7)+(C8*B8)+(C9*B9)+(C10*B10)+(C11*B11)+(C12*B12)+(C14*B14)+(C16*B16)+(C18*B18)</f>
+        <v>46.1</v>
+      </c>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2695,18 +2874,32 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="http://www.mouser.com/ds/2/368/Bluegigga%20Technologies_WT32i_Datasheet-558681.pdf"/>
-    <hyperlink ref="G3" r:id="rId2" display="http://www.mouser.com/ProductDetail/Bluegiga-Technologies/WT32i-E-AI6/?qs=sGAEpiMZZMsGelYiB%2BjhZsbL35iSrRKSBLln%2BDz/W3NKGY8vYrF%2Biw=="/>
-    <hyperlink ref="F4" r:id="rId3" display="https://cache.freescale.com/files/shared/doc/package_info/98ASS23234W.pdf"/>
-    <hyperlink ref="G4" r:id="rId4" display="https://www.digikey.com/product-search/en?keywords=MK20DX256VLH7"/>
-    <hyperlink ref="G5" r:id="rId5" display="https://www.pjrc.com/store/ic_mkl02.html"/>
-    <hyperlink ref="F6" r:id="rId6" display="https://www.winbond.com/resource-files/w25q128fv_revhh1_100913_website1.pdf"/>
-    <hyperlink ref="G6" r:id="rId7" display="https://www.digikey.com/product-search/en/integrated-circuits-ics/memory/2556980?k=w25q128fv&amp;k=&amp;pkeyword=w25q128fv&amp;pv16=7409&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25"/>
-    <hyperlink ref="F8" r:id="rId8" display="http://www.bourns.com/docs/Product-Datasheets/PTV09.pdf"/>
-    <hyperlink ref="G8" r:id="rId9" display="https://www.digikey.com/product-detail/en/bourns-inc/PTV09A-4020U-B103/PTV09A-4020U-B103-ND/3781130"/>
-    <hyperlink ref="F9" r:id="rId10" display="http://www.ndk.com/images/products/catalog/c_NX2520SA-STD-CSW-5_e.pdf"/>
-    <hyperlink ref="G9" r:id="rId11" display="https://www.digikey.com/product-detail/en/ndk/NX2520SA-16MHZ-STD-CSW-5/644-1169-1-ND/3125558"/>
-    <hyperlink ref="G14" r:id="rId12" display="https://www.digikey.com/product-detail/en/digi-international/JF1R6-CR3-4I/JF1R6-CR3-4I-ND/1090366"/>
-    <hyperlink ref="G16" r:id="rId13" display="http://www.hammondmfg.com/dwg2c.htm"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://www.digikey.com/product-detail/en/silicon-labs/WT32I-E-AI6/1446-1037-1-ND/4806564"/>
+    <hyperlink ref="H3" r:id="rId3" display="http://www.mouser.com/ProductDetail/Silicon-Labs-Bluegiga/WT32i-E-AI6/?qs=sGAEpiMZZMs8jstQXqv0yeC3dKQ4sq/l%2BU8bwDMPAJ4="/>
+    <hyperlink ref="F4" r:id="rId4" display="https://cache.freescale.com/files/shared/doc/package_info/98ASS23234W.pdf"/>
+    <hyperlink ref="G4" r:id="rId5" display="https://www.digikey.com/product-search/en?keywords=MK20DX256VLH7"/>
+    <hyperlink ref="H4" r:id="rId6" display="http://www.mouser.com/ProductDetail/NXP/MK20DX256VLH7/?qs=/ha2pyFadug8%2BwzZZR%2BytC1ltyM55e7A0lqFLKyD9Js6E9TOVIZq4w=="/>
+    <hyperlink ref="F5" r:id="rId7" display="http://www.nxp.com/files/footprint/pdf/lqfp32.pdf"/>
+    <hyperlink ref="G5" r:id="rId8" display="https://www.pjrc.com/store/ic_mkl02.html"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.winbond.com/resource-files/w25q128fv_revhh1_100913_website1.pdf"/>
+    <hyperlink ref="G6" r:id="rId10" display="https://www.digikey.com/product-search/en/integrated-circuits-ics/memory/2556980?k=w25q128fv&amp;k=&amp;pkeyword=w25q128fv&amp;pv16=7409&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=0&amp;page=1&amp;stock=1&amp;quantity=0&amp;ptm=0&amp;fid=0&amp;pageSize=25"/>
+    <hyperlink ref="F8" r:id="rId11" display="http://www.bourns.com/docs/Product-Datasheets/PTV09.pdf"/>
+    <hyperlink ref="G8" r:id="rId12" display="https://www.digikey.com/product-detail/en/bourns-inc/PTV09A-4020U-B103/PTV09A-4020U-B103-ND/3781130"/>
+    <hyperlink ref="H8" r:id="rId13" display="http://www.mouser.com/ProductDetail/Bourns/PTV09A-4020U-B103/?qs=/ha2pyFaduhvapXs4is1IL5MTuddxsTCviGLLAmL1hnk3lNHCL1NVQ=="/>
+    <hyperlink ref="F9" r:id="rId14" display="http://www.ndk.com/images/products/catalog/c_NX2520SA-STD-CSW-5_e.pdf"/>
+    <hyperlink ref="G9" r:id="rId15" display="https://www.digikey.com/product-detail/en/ndk/NX2520SA-16MHZ-STD-CSW-5/644-1169-1-ND/3125558"/>
+    <hyperlink ref="F13" r:id="rId16" display="http://www.diodes.com/_files/datasheets/AP7313.pdf"/>
+    <hyperlink ref="G13" r:id="rId17" display="https://www.digikey.com/product-detail/en/diodes-incorporated/AP7313-18SAG-7/AP7313-18SAG-7DICT-ND/2270838"/>
+    <hyperlink ref="H13" r:id="rId18" display="http://www.mouser.com/ProductDetail/Diodes-Incorporated/AP7313-18SAG-7/?qs=/ha2pyFadujy/gnw%2B3xItPhBQ0SnhtM987cdGDCE3x6s1BRWXYc%2B1Q=="/>
+    <hyperlink ref="F14" r:id="rId19" display="http://www.kemet.com/Lists/ProductCatalog/Attachments/421/KEM_T2015_T520.pdf"/>
+    <hyperlink ref="G14" r:id="rId20" display="https://www.digikey.com/product-detail/en/kemet/T520D337M006ATE009/399-10418-1-ND/3880189"/>
+    <hyperlink ref="H14" r:id="rId21" display="http://www.mouser.com/ProductDetail/Kemet/T520D337M006ATE009/?qs=F4vAmCFCeavzfa2EBT2i1w=="/>
+    <hyperlink ref="F15" r:id="rId22" display="https://product.tdk.com/info/en/catalog/datasheets/beads_commercial_power_mpz1608_en.pdf"/>
+    <hyperlink ref="G15" r:id="rId23" display="https://www.digikey.com/product-detail/en/tdk-corporation/MPZ1608S601ATA00/445-2205-1-ND/765103"/>
+    <hyperlink ref="H15" r:id="rId24" display="http://www.mouser.com/ProductDetail/TDK/MPZ1608S601ATA00/?qs=47dIwT2ZIzth0CTKDYh9rw=="/>
+    <hyperlink ref="G16" r:id="rId25" display="https://www.digikey.com/product-detail/en/digi-international/JF1R6-CR3-4I/JF1R6-CR3-4I-ND/1090366"/>
+    <hyperlink ref="H16" r:id="rId26" display="http://www.mouser.com/ProductDetail/Digi-International/JF1R6-CR3-4I/?qs=/ha2pyFaduims8tK6Us52r5eWOHgAet92us06mmlXyAvpYrNpBxg1A=="/>
+    <hyperlink ref="G18" r:id="rId27" display="http://www.hammondmfg.com/dwg2c.htm"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>GotT Translation Circuit BOM</t>
   </si>
@@ -149,16 +149,94 @@
     <t>F1</t>
   </si>
   <si>
+    <t>0ZCJ0050AF2E</t>
+  </si>
+  <si>
     <t>PTC Resettable Fuse</t>
   </si>
   <si>
+    <t>http://www.belfuse.com/pdfs/0ZCJ.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/bel-fuse-inc/0ZCJ0050AF2E/507-1803-1-ND/4156312</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Bel-Fuse/0ZCJ0050AF2E/?qs=SRYZG9HaIQ3Oqm1PQp276Q==</t>
+  </si>
+  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>Power Input Switch</t>
   </si>
   <si>
-    <t>TVS Protection Diode</t>
+    <t>FQP47P06</t>
+  </si>
+  <si>
+    <t>P-Channel Reverse Protection FET</t>
+  </si>
+  <si>
+    <t>https://www.fairchildsemi.com/datasheets/FQ/FQP47P06.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/fairchild-semiconductor/FQP47P06/FQP47P06-ND/1057079</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/FQP47P06/?qs=/ha2pyFaduhv9rQ9SF5XHKyeyOie6xcG5n7IeMTI890=</t>
+  </si>
+  <si>
+    <t>1N4749A_T50A</t>
+  </si>
+  <si>
+    <t>MOSFET Zener Diode</t>
+  </si>
+  <si>
+    <t>http://www.fairchildsemi.com/datasheets/1N/1N4731A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/fairchild-semiconductor/1N4749A_T50A/1N4749A_T50AFSCT-ND/3478158</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/1N4749A_T50A/?qs=9h%2BT/FFCxR/U89fjfSyrjQ==</t>
+  </si>
+  <si>
+    <t>Switching Regulator Inductor</t>
+  </si>
+  <si>
+    <t>MBRS130L</t>
+  </si>
+  <si>
+    <t>Switching Regulator Schottky Diode</t>
+  </si>
+  <si>
+    <t>http://www.fairchildsemi.com/datasheets/MB/MBRS130L.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/fairchild-semiconductor/MBRS130L/MBRS130LFSCT-ND/3042645</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/MBRS130L/?qs=3csLVnQQLU2Pf2cVoQKtiA==</t>
+  </si>
+  <si>
+    <t>LDO Over-voltage Zener Diode</t>
+  </si>
+  <si>
+    <t>MOSFET Resistor</t>
+  </si>
+  <si>
+    <t>LM2594MX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>3.3V, 500mA Switching Regulator</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/lm2594.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/LM2594MX-3.3-NOPB/LM2594MX-3.3-NOPBCT-ND/3526877</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Texas-Instruments/LM2594MX-33-NOPB/?qs=X1J7HmVL2ZEh4uJm8Q5hoQ==</t>
   </si>
   <si>
     <t>AP7313-18SAG-7</t>
@@ -354,7 +432,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,10 +485,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -452,7 +526,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6173469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1428571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="37.1428571428571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4183673469388"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.0867346938776"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.0867346938776"/>
@@ -2693,17 +2767,28 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>1</v>
@@ -2711,7 +2796,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
@@ -2721,13 +2806,24 @@
       <c r="B12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
@@ -2735,49 +2831,35 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -2785,51 +2867,39 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
-      <c r="B16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="B17" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
@@ -2837,36 +2907,170 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="G18" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15"/>
-      <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="16" t="s">
-        <v>71</v>
+      <c r="A20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="C20" s="7" t="n">
-        <f aca="false">(C3*B3)+(C4*B4)+(C5*B5)+(C7*B7)+(C8*B8)+(C9*B9)+(C10*B10)+(C11*B11)+(C12*B12)+(C14*B14)+(C16*B16)+(C18*B18)</f>
-        <v>46.1</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>2.17</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="14"/>
+      <c r="C25" s="7"/>
+      <c r="G25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <f aca="false">(C3*B3)+(C4*B4)+(C5*B5)+(C7*B7)+(C8*B8)+(C9*B9)+(C10*B10)+(C11*B11)+(C12*B12)+(C20*B20)+(C22*B22)+(C24*B24)</f>
+        <v>48.53</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2888,18 +3092,33 @@
     <hyperlink ref="H8" r:id="rId13" display="http://www.mouser.com/ProductDetail/Bourns/PTV09A-4020U-B103/?qs=/ha2pyFaduhvapXs4is1IL5MTuddxsTCviGLLAmL1hnk3lNHCL1NVQ=="/>
     <hyperlink ref="F9" r:id="rId14" display="http://www.ndk.com/images/products/catalog/c_NX2520SA-STD-CSW-5_e.pdf"/>
     <hyperlink ref="G9" r:id="rId15" display="https://www.digikey.com/product-detail/en/ndk/NX2520SA-16MHZ-STD-CSW-5/644-1169-1-ND/3125558"/>
-    <hyperlink ref="F13" r:id="rId16" display="http://www.diodes.com/_files/datasheets/AP7313.pdf"/>
-    <hyperlink ref="G13" r:id="rId17" display="https://www.digikey.com/product-detail/en/diodes-incorporated/AP7313-18SAG-7/AP7313-18SAG-7DICT-ND/2270838"/>
-    <hyperlink ref="H13" r:id="rId18" display="http://www.mouser.com/ProductDetail/Diodes-Incorporated/AP7313-18SAG-7/?qs=/ha2pyFadujy/gnw%2B3xItPhBQ0SnhtM987cdGDCE3x6s1BRWXYc%2B1Q=="/>
-    <hyperlink ref="F14" r:id="rId19" display="http://www.kemet.com/Lists/ProductCatalog/Attachments/421/KEM_T2015_T520.pdf"/>
-    <hyperlink ref="G14" r:id="rId20" display="https://www.digikey.com/product-detail/en/kemet/T520D337M006ATE009/399-10418-1-ND/3880189"/>
-    <hyperlink ref="H14" r:id="rId21" display="http://www.mouser.com/ProductDetail/Kemet/T520D337M006ATE009/?qs=F4vAmCFCeavzfa2EBT2i1w=="/>
-    <hyperlink ref="F15" r:id="rId22" display="https://product.tdk.com/info/en/catalog/datasheets/beads_commercial_power_mpz1608_en.pdf"/>
-    <hyperlink ref="G15" r:id="rId23" display="https://www.digikey.com/product-detail/en/tdk-corporation/MPZ1608S601ATA00/445-2205-1-ND/765103"/>
-    <hyperlink ref="H15" r:id="rId24" display="http://www.mouser.com/ProductDetail/TDK/MPZ1608S601ATA00/?qs=47dIwT2ZIzth0CTKDYh9rw=="/>
-    <hyperlink ref="G16" r:id="rId25" display="https://www.digikey.com/product-detail/en/digi-international/JF1R6-CR3-4I/JF1R6-CR3-4I-ND/1090366"/>
-    <hyperlink ref="H16" r:id="rId26" display="http://www.mouser.com/ProductDetail/Digi-International/JF1R6-CR3-4I/?qs=/ha2pyFaduims8tK6Us52r5eWOHgAet92us06mmlXyAvpYrNpBxg1A=="/>
-    <hyperlink ref="G18" r:id="rId27" display="http://www.hammondmfg.com/dwg2c.htm"/>
+    <hyperlink ref="F10" r:id="rId16" display="http://www.belfuse.com/pdfs/0ZCJ.pdf"/>
+    <hyperlink ref="G10" r:id="rId17" display="https://www.digikey.com/product-detail/en/bel-fuse-inc/0ZCJ0050AF2E/507-1803-1-ND/4156312"/>
+    <hyperlink ref="H10" r:id="rId18" display="http://www.mouser.com/ProductDetail/Bel-Fuse/0ZCJ0050AF2E/?qs=SRYZG9HaIQ3Oqm1PQp276Q=="/>
+    <hyperlink ref="F12" r:id="rId19" display="https://www.fairchildsemi.com/datasheets/FQ/FQP47P06.pdf"/>
+    <hyperlink ref="G12" r:id="rId20" display="https://www.digikey.com/product-detail/en/fairchild-semiconductor/FQP47P06/FQP47P06-ND/1057079"/>
+    <hyperlink ref="H12" r:id="rId21" display="http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/FQP47P06/?qs=/ha2pyFaduhv9rQ9SF5XHKyeyOie6xcG5n7IeMTI890="/>
+    <hyperlink ref="F13" r:id="rId22" display="http://www.fairchildsemi.com/datasheets/1N/1N4731A.pdf"/>
+    <hyperlink ref="G13" r:id="rId23" display="https://www.digikey.com/product-detail/en/fairchild-semiconductor/1N4749A_T50A/1N4749A_T50AFSCT-ND/3478158"/>
+    <hyperlink ref="H13" r:id="rId24" display="http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/1N4749A_T50A/?qs=9h%2BT/FFCxR/U89fjfSyrjQ=="/>
+    <hyperlink ref="F15" r:id="rId25" display="http://www.fairchildsemi.com/datasheets/MB/MBRS130L.pdf"/>
+    <hyperlink ref="G15" r:id="rId26" display="https://www.digikey.com/product-detail/en/fairchild-semiconductor/MBRS130L/MBRS130LFSCT-ND/3042645"/>
+    <hyperlink ref="H15" r:id="rId27" display="http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/MBRS130L/?qs=3csLVnQQLU2Pf2cVoQKtiA=="/>
+    <hyperlink ref="F18" r:id="rId28" display="http://www.ti.com/lit/ds/symlink/lm2594.pdf"/>
+    <hyperlink ref="G18" r:id="rId29" display="https://www.digikey.com/product-detail/en/texas-instruments/LM2594MX-3.3-NOPB/LM2594MX-3.3-NOPBCT-ND/3526877"/>
+    <hyperlink ref="H18" r:id="rId30" display="http://www.mouser.com/ProductDetail/Texas-Instruments/LM2594MX-33-NOPB/?qs=X1J7HmVL2ZEh4uJm8Q5hoQ=="/>
+    <hyperlink ref="F19" r:id="rId31" display="http://www.diodes.com/_files/datasheets/AP7313.pdf"/>
+    <hyperlink ref="G19" r:id="rId32" display="https://www.digikey.com/product-detail/en/diodes-incorporated/AP7313-18SAG-7/AP7313-18SAG-7DICT-ND/2270838"/>
+    <hyperlink ref="H19" r:id="rId33" display="http://www.mouser.com/ProductDetail/Diodes-Incorporated/AP7313-18SAG-7/?qs=/ha2pyFadujy/gnw%2B3xItPhBQ0SnhtM987cdGDCE3x6s1BRWXYc%2B1Q=="/>
+    <hyperlink ref="F20" r:id="rId34" display="http://www.kemet.com/Lists/ProductCatalog/Attachments/421/KEM_T2015_T520.pdf"/>
+    <hyperlink ref="G20" r:id="rId35" display="https://www.digikey.com/product-detail/en/kemet/T520D337M006ATE009/399-10418-1-ND/3880189"/>
+    <hyperlink ref="H20" r:id="rId36" display="http://www.mouser.com/ProductDetail/Kemet/T520D337M006ATE009/?qs=F4vAmCFCeavzfa2EBT2i1w=="/>
+    <hyperlink ref="F21" r:id="rId37" display="https://product.tdk.com/info/en/catalog/datasheets/beads_commercial_power_mpz1608_en.pdf"/>
+    <hyperlink ref="G21" r:id="rId38" display="https://www.digikey.com/product-detail/en/tdk-corporation/MPZ1608S601ATA00/445-2205-1-ND/765103"/>
+    <hyperlink ref="H21" r:id="rId39" display="http://www.mouser.com/ProductDetail/TDK/MPZ1608S601ATA00/?qs=47dIwT2ZIzth0CTKDYh9rw=="/>
+    <hyperlink ref="G22" r:id="rId40" display="https://www.digikey.com/product-detail/en/digi-international/JF1R6-CR3-4I/JF1R6-CR3-4I-ND/1090366"/>
+    <hyperlink ref="H22" r:id="rId41" display="http://www.mouser.com/ProductDetail/Digi-International/JF1R6-CR3-4I/?qs=/ha2pyFaduims8tK6Us52r5eWOHgAet92us06mmlXyAvpYrNpBxg1A=="/>
+    <hyperlink ref="G24" r:id="rId42" display="http://www.hammondmfg.com/dwg2c.htm"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WT32i Breakout" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="GotT Translation Circuit" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
